--- a/Excel/Monthly Cashflow Sample.xlsx
+++ b/Excel/Monthly Cashflow Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="13" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="October" sheetId="2" r:id="rId10"/>
     <sheet name="November" sheetId="7" r:id="rId11"/>
     <sheet name="December" sheetId="1" r:id="rId12"/>
+    <sheet name="Summary" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">April!$3:$4</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
   <si>
     <t>Income $</t>
   </si>
@@ -186,6 +187,57 @@
   <si>
     <t>Personalized Notes:</t>
   </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Total Income</t>
+  </si>
+  <si>
+    <t>End of Month Cashflow</t>
+  </si>
+  <si>
+    <t>Total Saving</t>
+  </si>
+  <si>
+    <t>Total Expense</t>
+  </si>
 </sst>
 </file>
 
@@ -198,17 +250,24 @@
     <numFmt numFmtId="166" formatCode="[$-409]dddd\ dd"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,13 +275,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -230,7 +289,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -238,35 +297,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -274,14 +333,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -289,20 +348,20 @@
       <i/>
       <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Century Gothic"/>
+      <name val="Trebuchet MS"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,7 +385,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +432,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -628,45 +693,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -676,7 +783,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,60 +792,51 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,68 +844,99 @@
     <xf numFmtId="166" fontId="16" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="21" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
+    <cellStyle name="20% - Accent1" xfId="13" builtinId="30"/>
     <cellStyle name="Break" xfId="8"/>
     <cellStyle name="Currency" xfId="9" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="6" builtinId="53" customBuiltin="1"/>
@@ -822,7 +951,17 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="11" builtinId="11"/>
   </cellStyles>
-  <dxfs count="257">
+  <dxfs count="258">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -836,7 +975,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -865,7 +1004,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -929,7 +1068,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1053,7 +1192,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1082,7 +1221,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1146,7 +1285,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1270,7 +1409,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1299,7 +1438,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1363,7 +1502,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1487,7 +1626,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1516,7 +1655,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1580,7 +1719,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1704,7 +1843,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1733,7 +1872,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1797,7 +1936,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1921,7 +2060,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -1950,7 +2089,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2014,7 +2153,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2138,7 +2277,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2167,7 +2306,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2231,7 +2370,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2355,7 +2494,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2384,7 +2523,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2448,7 +2587,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2572,7 +2711,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2601,7 +2740,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2665,7 +2804,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2789,7 +2928,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2818,7 +2957,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -2882,7 +3021,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3006,7 +3145,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -3035,7 +3174,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -3099,7 +3238,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3223,7 +3362,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -3252,7 +3391,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -3316,7 +3455,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3537,11 +3676,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Five-day event schedule" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Five-day event schedule" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="256"/>
-      <tableStyleElement type="headerRow" dxfId="255"/>
-      <tableStyleElement type="totalRow" dxfId="254"/>
-      <tableStyleElement type="firstColumn" dxfId="253"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="252"/>
+      <tableStyleElement type="wholeTable" dxfId="257"/>
+      <tableStyleElement type="headerRow" dxfId="256"/>
+      <tableStyleElement type="totalRow" dxfId="255"/>
+      <tableStyleElement type="firstColumn" dxfId="254"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="253"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3623,18 +3762,1448 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Debt vs Cashflow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39759711286089239"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Debt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="15000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-775F-421B-B307-DE4E63A68D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>End of Month Cashflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:srgbClr val="00B050">
+                  <a:alpha val="15000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-775F-421B-B307-DE4E63A68D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1781865391"/>
+        <c:axId val="1781862479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1781865391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781862479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1781862479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781865391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12734925" y="1952625"/>
+          <a:ext cx="2571750" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Quick insight about this Monthly Cashflow summary:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In this example, this person started the year with a 21K Dollard debt and  $ 0 money, with an income of 1500 every two weeks.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If this person sticks with his monthly expenses and income, he will be able to pay his total debt by the beginning of November.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>But we all know he will get in debt again in December... just kidding, but he better be responsible with his money.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306051" y="5162550"/>
+          <a:ext cx="2552700" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>How will your cashflow look like from now until December?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Feel free to play with it, learn from it, and/or use it as your personal Monthly Budget as I do.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Schedule13" displayName="Schedule13" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Schedule13" displayName="Schedule13" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="246">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="244" dataDxfId="243" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="242" dataDxfId="241"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="240" dataDxfId="239" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="238" dataDxfId="237" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="236" dataDxfId="235" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="234" dataDxfId="233" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="245" dataDxfId="244" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="243" dataDxfId="242"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="241" dataDxfId="240" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="239" dataDxfId="238" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="237" dataDxfId="236" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="235" dataDxfId="234" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="232" dataDxfId="231" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="233" dataDxfId="232" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3646,17 +5215,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule3" displayName="Schedule3" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule3" displayName="Schedule3" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="55" dataDxfId="54" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="53" dataDxfId="52"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="51" dataDxfId="50" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="49" dataDxfId="48" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="47" dataDxfId="46" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="45" dataDxfId="44" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="56" dataDxfId="55" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="54" dataDxfId="53"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="52" dataDxfId="51" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="50" dataDxfId="49" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="48" dataDxfId="47" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="46" dataDxfId="45" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="43" dataDxfId="42" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="44" dataDxfId="43" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3668,17 +5237,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Schedule7" displayName="Schedule7" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Schedule7" displayName="Schedule7" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="36">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="34" dataDxfId="33" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="32" dataDxfId="31"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="26" dataDxfId="25" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="35" dataDxfId="34" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="31" dataDxfId="30" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="27" dataDxfId="26" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="25" dataDxfId="24" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="22" dataDxfId="21" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="23" dataDxfId="22" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3690,17 +5259,17 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Schedule" displayName="Schedule" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Schedule" displayName="Schedule" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="3" dataDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="14" dataDxfId="13" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="1" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3712,17 +5281,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Schedule12" displayName="Schedule12" ref="B5:H33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Schedule12" displayName="Schedule12" ref="B5:H33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="225">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="223" dataDxfId="222" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="221" dataDxfId="220"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="219" dataDxfId="218" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="217" dataDxfId="216" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="215" dataDxfId="214" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="213" dataDxfId="212" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="224" dataDxfId="223" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="222" dataDxfId="221"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="220" dataDxfId="219" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="218" dataDxfId="217" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="216" dataDxfId="215" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="214" dataDxfId="213" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="211" dataDxfId="210" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="212" dataDxfId="211" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3734,17 +5303,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Schedule11" displayName="Schedule11" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Schedule11" displayName="Schedule11" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="204">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="202" dataDxfId="201" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="200" dataDxfId="199"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="198" dataDxfId="197" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="196" dataDxfId="195" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="194" dataDxfId="193" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="192" dataDxfId="191" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="203" dataDxfId="202" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="201" dataDxfId="200"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="199" dataDxfId="198" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="197" dataDxfId="196" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="195" dataDxfId="194" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="193" dataDxfId="192" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="190" dataDxfId="189" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="191" dataDxfId="190" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3756,17 +5325,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Schedule10" displayName="Schedule10" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Schedule10" displayName="Schedule10" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="183">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="181" dataDxfId="180" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="179" dataDxfId="178"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="177" dataDxfId="176" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="175" dataDxfId="174" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="173" dataDxfId="172" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="171" dataDxfId="170" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="182" dataDxfId="181" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="180" dataDxfId="179"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="178" dataDxfId="177" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="176" dataDxfId="175" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="174" dataDxfId="173" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="172" dataDxfId="171" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="169" dataDxfId="168" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="170" dataDxfId="169" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3778,17 +5347,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Schedule9" displayName="Schedule9" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Schedule9" displayName="Schedule9" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="162">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="160" dataDxfId="159" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="158" dataDxfId="157"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="156" dataDxfId="155" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="154" dataDxfId="153" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="152" dataDxfId="151" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="150" dataDxfId="149" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="161" dataDxfId="160" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="159" dataDxfId="158"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="157" dataDxfId="156" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="155" dataDxfId="154" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="153" dataDxfId="152" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="151" dataDxfId="150" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="148" dataDxfId="147" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="149" dataDxfId="148" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3800,17 +5369,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Schedule8" displayName="Schedule8" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Schedule8" displayName="Schedule8" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="141">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="139" dataDxfId="138" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="137" dataDxfId="136"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="135" dataDxfId="134" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="133" dataDxfId="132" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="131" dataDxfId="130" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="129" dataDxfId="128" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="140" dataDxfId="139" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="138" dataDxfId="137"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="136" dataDxfId="135" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="134" dataDxfId="133" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="132" dataDxfId="131" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="130" dataDxfId="129" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="127" dataDxfId="126" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="128" dataDxfId="127" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3822,17 +5391,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Schedule6" displayName="Schedule6" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Schedule6" displayName="Schedule6" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="120">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="118" dataDxfId="117" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="116" dataDxfId="115"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="114" dataDxfId="113" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="112" dataDxfId="111" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="110" dataDxfId="109" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="108" dataDxfId="107" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="119" dataDxfId="118" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="117" dataDxfId="116"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="115" dataDxfId="114" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="113" dataDxfId="112" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="111" dataDxfId="110" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="109" dataDxfId="108" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="106" dataDxfId="105" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="107" dataDxfId="106" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3844,17 +5413,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Schedule5" displayName="Schedule5" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Schedule5" displayName="Schedule5" ref="B5:H36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="99">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="97" dataDxfId="96" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="89" dataDxfId="88" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="98" dataDxfId="97" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="94" dataDxfId="93" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="92" dataDxfId="91" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="90" dataDxfId="89" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3866,17 +5435,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule4" displayName="Schedule4" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule4" displayName="Schedule4" ref="B5:H35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="78">
   <tableColumns count="7">
-    <tableColumn id="9" name="Column7" headerRowDxfId="76" dataDxfId="75" dataCellStyle="Time"/>
-    <tableColumn id="2" name="Column1" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="3" name="Column2" headerRowDxfId="72" dataDxfId="71" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" name="Column3" headerRowDxfId="70" dataDxfId="69" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" name="Column4" headerRowDxfId="68" dataDxfId="67" dataCellStyle="Currency"/>
-    <tableColumn id="1" name="Column5" headerRowDxfId="66" dataDxfId="65" dataCellStyle="Currency">
+    <tableColumn id="9" name="Column7" headerRowDxfId="77" dataDxfId="76" dataCellStyle="Time"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="73" dataDxfId="72" dataCellStyle="Warning Text"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="71" dataDxfId="70" dataCellStyle="Warning Text"/>
+    <tableColumn id="5" name="Column4" headerRowDxfId="69" dataDxfId="68" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Column5" headerRowDxfId="67" dataDxfId="66" dataCellStyle="Currency">
       <calculatedColumnFormula xml:space="preserve"> G4 + F4 - D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column8" headerRowDxfId="64" dataDxfId="63" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Column8" headerRowDxfId="65" dataDxfId="64" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Five-day event schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -3888,9 +5457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Berlin">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3928,18 +5497,53 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Verve">
+    <a:fontScheme name="Berlin">
       <a:majorFont>
-        <a:latin typeface="Century Gothic"/>
+        <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="HGｺﾞｼｯｸM"/>
-        <a:font script="Hang" typeface="HY중고딕"/>
-        <a:font script="Hans" typeface="幼圆"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Gisha"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -3960,45 +5564,12 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Century Gothic"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="HY중고딕"/>
-        <a:font script="Hans" typeface="幼圆"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
-        <a:font script="Arab" typeface="Tahoma"/>
-        <a:font script="Hebr" typeface="Gisha"/>
-        <a:font script="Thai" typeface="DilleniaUPC"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Verdana"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Berlin">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4007,66 +5578,62 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="60000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="70000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="99000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4075,98 +5642,71 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="96000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="270000"/>
+                <a:satMod val="200000"/>
+                <a:lumMod val="128000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="100000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="78000"/>
+                <a:hueMod val="44000"/>
+                <a:satMod val="200000"/>
+                <a:lumMod val="69000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="2520000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Berlin" id="{7B5DBA9E-B069-418E-9360-A61BDD0615A4}" vid="{C0CBE056-4EF4-4D92-969E-947779DA7AAA}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -4178,78 +5718,78 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="25">
         <v>44927</v>
       </c>
@@ -4267,10 +5807,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -4928,26 +6468,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:H34 G33:G35 F5:F36 G5:H32">
-    <cfRule type="cellIs" dxfId="251" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 G36">
-    <cfRule type="cellIs" dxfId="249" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="247" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4976,8 +6516,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4987,60 +6527,60 @@
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -5068,10 +6608,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -5779,7 +7319,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>1650</v>
       </c>
       <c r="E36" s="10">
@@ -5812,26 +7352,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F36 G5:H34">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G36">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5859,8 +7399,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5870,67 +7410,67 @@
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="22">
         <v>45231</v>
       </c>
@@ -5953,10 +7493,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -6647,8 +8187,8 @@
         <v>6</v>
       </c>
       <c r="D35" s="31">
-        <f>SUM(D5:D10, D17:D23, D25:D32)</f>
-        <v>1550</v>
+        <f>SUM(D5:D32)</f>
+        <v>1650</v>
       </c>
       <c r="E35" s="10">
         <f>SUM(E6:E34)</f>
@@ -6664,7 +8204,7 @@
       </c>
       <c r="H35" s="6">
         <f xml:space="preserve"> F35 - D35</f>
-        <v>1450</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -6681,26 +8221,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F35 G5:H34">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6731,78 +8271,78 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.25" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="22">
         <v>45261</v>
       </c>
@@ -6828,10 +8368,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -7539,7 +9079,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>1650</v>
       </c>
       <c r="E36" s="10">
@@ -7574,26 +9114,26 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F5:F36 G5:H34">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G36">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7616,6 +9156,357 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="34">
+        <f>January!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D2" s="34">
+        <f>January!E36</f>
+        <v>21000</v>
+      </c>
+      <c r="E2" s="35">
+        <f>January!F36</f>
+        <v>3000</v>
+      </c>
+      <c r="F2" s="36">
+        <f>January!G36</f>
+        <v>1350</v>
+      </c>
+      <c r="G2" s="36">
+        <f>January!H36</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="34">
+        <f>February!D33</f>
+        <v>1650</v>
+      </c>
+      <c r="D3" s="34">
+        <f>February!E33</f>
+        <v>20550</v>
+      </c>
+      <c r="E3" s="35">
+        <f>February!F33</f>
+        <v>3000</v>
+      </c>
+      <c r="F3" s="36">
+        <f>February!G33</f>
+        <v>2700</v>
+      </c>
+      <c r="G3" s="36">
+        <f>February!H33</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="34">
+        <f>March!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D4" s="34">
+        <f>March!E36</f>
+        <v>20100</v>
+      </c>
+      <c r="E4" s="35">
+        <f>March!F36</f>
+        <v>4500</v>
+      </c>
+      <c r="F4" s="36">
+        <f>March!G36</f>
+        <v>5550</v>
+      </c>
+      <c r="G4" s="36">
+        <f>March!H36</f>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="34">
+        <f>April!D35</f>
+        <v>1650</v>
+      </c>
+      <c r="D5" s="34">
+        <f>April!E35</f>
+        <v>19650</v>
+      </c>
+      <c r="E5" s="35">
+        <f>April!F35</f>
+        <v>3000</v>
+      </c>
+      <c r="F5" s="36">
+        <f>April!G35</f>
+        <v>6900</v>
+      </c>
+      <c r="G5" s="36">
+        <f>April!H35</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="34">
+        <f>May!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D6" s="34">
+        <f>May!E36</f>
+        <v>19200</v>
+      </c>
+      <c r="E6" s="35">
+        <f>May!F36</f>
+        <v>3000</v>
+      </c>
+      <c r="F6" s="36">
+        <f>May!G36</f>
+        <v>8250</v>
+      </c>
+      <c r="G6" s="36">
+        <f>May!H36</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="34">
+        <f>June!D35</f>
+        <v>1650</v>
+      </c>
+      <c r="D7" s="34">
+        <f>June!E35</f>
+        <v>18750</v>
+      </c>
+      <c r="E7" s="35">
+        <f>June!F35</f>
+        <v>3000</v>
+      </c>
+      <c r="F7" s="36">
+        <f>June!G35</f>
+        <v>9600</v>
+      </c>
+      <c r="G7" s="36">
+        <f>June!H35</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="34">
+        <f>July!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D8" s="34">
+        <f>July!E36</f>
+        <v>18300</v>
+      </c>
+      <c r="E8" s="35">
+        <f>July!F36</f>
+        <v>3000</v>
+      </c>
+      <c r="F8" s="36">
+        <f>July!G36</f>
+        <v>10950</v>
+      </c>
+      <c r="G8" s="36">
+        <f>July!H36</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="34">
+        <f>August!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D9" s="34">
+        <f>August!E36</f>
+        <v>17850</v>
+      </c>
+      <c r="E9" s="35">
+        <f>August!F36</f>
+        <v>3000</v>
+      </c>
+      <c r="F9" s="36">
+        <f>August!G36</f>
+        <v>12300</v>
+      </c>
+      <c r="G9" s="36">
+        <f>August!H36</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="34">
+        <f>September!D35</f>
+        <v>1650</v>
+      </c>
+      <c r="D10" s="34">
+        <f>September!E35</f>
+        <v>17400</v>
+      </c>
+      <c r="E10" s="35">
+        <f>September!F35</f>
+        <v>4500</v>
+      </c>
+      <c r="F10" s="36">
+        <f>September!G35</f>
+        <v>15150</v>
+      </c>
+      <c r="G10" s="36">
+        <f>September!H35</f>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="34">
+        <f>October!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D11" s="34">
+        <f>October!E36</f>
+        <v>16950</v>
+      </c>
+      <c r="E11" s="35">
+        <f>October!F36</f>
+        <v>3000</v>
+      </c>
+      <c r="F11" s="36">
+        <f>October!G36</f>
+        <v>16500</v>
+      </c>
+      <c r="G11" s="36">
+        <f>October!H36</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="34">
+        <f>November!D35</f>
+        <v>1650</v>
+      </c>
+      <c r="D12" s="34">
+        <f>November!E35</f>
+        <v>16500</v>
+      </c>
+      <c r="E12" s="35">
+        <f>November!F35</f>
+        <v>3000</v>
+      </c>
+      <c r="F12" s="36">
+        <f>November!G35</f>
+        <v>17850</v>
+      </c>
+      <c r="G12" s="36">
+        <f>November!H35</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="34">
+        <f>December!D36</f>
+        <v>1650</v>
+      </c>
+      <c r="D13" s="34">
+        <f>December!E36</f>
+        <v>16050</v>
+      </c>
+      <c r="E13" s="35">
+        <f>December!F36</f>
+        <v>3000</v>
+      </c>
+      <c r="F13" s="36">
+        <f>December!G36</f>
+        <v>19200</v>
+      </c>
+      <c r="G13" s="36">
+        <f>December!H36</f>
+        <v>1350</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -7624,8 +9515,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7635,67 +9526,67 @@
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="22">
         <v>44958</v>
       </c>
@@ -7720,10 +9611,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
@@ -8408,8 +10299,8 @@
         <v>6</v>
       </c>
       <c r="D33" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
-        <v>1550</v>
+        <f>SUM(D5:D32)</f>
+        <v>1650</v>
       </c>
       <c r="E33" s="10">
         <f>SUM(E6:E32)</f>
@@ -8425,7 +10316,7 @@
       </c>
       <c r="H33" s="6">
         <f xml:space="preserve"> F33 - D33</f>
-        <v>1450</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -8442,26 +10333,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F33 G5:H32">
-    <cfRule type="cellIs" dxfId="230" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="8" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="9" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="228" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="6" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="226" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="2" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8489,78 +10380,78 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="22">
         <v>44986</v>
       </c>
@@ -8583,10 +10474,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
@@ -9321,8 +11212,8 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
-        <v>1550</v>
+        <f>SUM(D5:D35)</f>
+        <v>1650</v>
       </c>
       <c r="E36" s="10">
         <f>SUM(E6:E35)</f>
@@ -9338,7 +11229,7 @@
       </c>
       <c r="H36" s="6">
         <f xml:space="preserve"> F36 - D36</f>
-        <v>2950</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>
@@ -9355,26 +11246,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F36 G5:H34">
-    <cfRule type="cellIs" dxfId="209" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G36">
-    <cfRule type="cellIs" dxfId="207" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="205" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9403,70 +11294,70 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -9494,10 +11385,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -10190,8 +12081,8 @@
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
-        <v>1550</v>
+        <f>SUM(D5:D34)</f>
+        <v>1650</v>
       </c>
       <c r="E35" s="10">
         <f>SUM(E6:E34)</f>
@@ -10207,7 +12098,7 @@
       </c>
       <c r="H35" s="6">
         <f xml:space="preserve"> F35 - D35</f>
-        <v>1450</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -10223,26 +12114,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F35 G5:H34">
-    <cfRule type="cellIs" dxfId="188" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="186" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="5" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="184" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10271,70 +12162,70 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -10362,10 +12253,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -11076,8 +12967,8 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
-        <v>1550</v>
+        <f>SUM(D5:D32)</f>
+        <v>1650</v>
       </c>
       <c r="E36" s="10">
         <f>SUM(E6:E35)</f>
@@ -11093,7 +12984,7 @@
       </c>
       <c r="H36" s="6">
         <f xml:space="preserve"> F36 - D36</f>
-        <v>1450</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -11109,26 +13000,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F36 G5:H34">
-    <cfRule type="cellIs" dxfId="167" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G36">
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11157,70 +13048,70 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -11248,10 +13139,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -11946,7 +13837,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>1650</v>
       </c>
       <c r="E35" s="10">
@@ -11984,26 +13875,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F35 G5:H34">
-    <cfRule type="cellIs" dxfId="146" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="144" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="5" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="142" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12032,70 +13923,70 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -12123,10 +14014,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -12834,7 +14725,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>1650</v>
       </c>
       <c r="E36" s="10">
@@ -12867,26 +14758,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F36 G5:H34">
-    <cfRule type="cellIs" dxfId="125" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G36">
-    <cfRule type="cellIs" dxfId="123" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="121" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12914,71 +14805,71 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -13006,10 +14897,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
@@ -13720,7 +15611,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>1650</v>
       </c>
       <c r="E36" s="10">
@@ -13753,26 +15644,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F36 G5:H34">
-    <cfRule type="cellIs" dxfId="104" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G36">
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13800,8 +15691,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13811,60 +15702,60 @@
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -13895,10 +15786,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -14588,7 +16479,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>1650</v>
       </c>
       <c r="E35" s="10">
@@ -14621,26 +16512,26 @@
     <mergeCell ref="H3:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F35 G5:H34">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
